--- a/冰箱/需求.xlsx
+++ b/冰箱/需求.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>电压</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>涉及mppt</t>
+  </si>
+  <si>
+    <t>蓝牙</t>
+  </si>
+  <si>
+    <t>可以，充电时风扇启动放电时根据情况决定风扇是否启动</t>
   </si>
 </sst>
 </file>
@@ -1031,10 +1037,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1142,6 +1148,16 @@
       </c>
       <c r="C12" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
